--- a/C15H/A4_C15H_data_BAD.xlsx
+++ b/C15H/A4_C15H_data_BAD.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PKBACK# 001/GitHub/24321-A4/C15H/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_D31F3EBD2F188646A74B6F77AE2A5E4C2FE02748" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17680" windowHeight="13720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17680" windowHeight="13720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -102,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -186,12 +193,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -199,6 +206,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -466,16 +476,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="65" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="58.5" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
